--- a/Data/GrimWorld 40,000 - Framework - 3119805903/GrimWorld 40,000 - Framework - 3119805903.xlsx
+++ b/Data/GrimWorld 40,000 - Framework - 3119805903/GrimWorld 40,000 - Framework - 3119805903.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\GrimWorld 40,000 - Framework - 3119805903\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4F12A-11FD-4A91-BE81-C29190D123DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F68843-D0F7-44E6-9DA8-9501163DA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="7080" windowWidth="28725" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -115,70 +115,70 @@
     <t>GW_GeneRestrictedEquipment_One</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Does not have the gene {0}.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유전자 {0}(이)가 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>modName (folderName)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Does not have the gene {0}.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유전자 {0}(이)가 없습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Keyed+GW_GeneRestrictedEquipment_None</t>
   </si>
   <si>
     <t>GW_GeneRestrictedEquipment_None</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Has the gene {0}.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유전자 {0}(을)를 가지고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GrimWorld 40,000 - Framework - 3119805903</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Has the gene {0}.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유전자 {0}(을)를 가지고 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Keyed+GW_XenoRestrictedEquipment_AnyOne</t>
   </si>
   <si>
@@ -188,66 +188,66 @@
     <t>Is not any of the required xenotypes.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필수 인종이 아닙니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GW_XenoRestrictedEquipment_One</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>필수 인종이 아닙니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GW_XenoRestrictedEquipment_One</t>
   </si>
   <si>
     <t>Is not a {0}.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}(이)가 아닙니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GW_XenoRestrictedEquipment_None</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}(이)가 아닙니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GW_XenoRestrictedEquipment_None</t>
   </si>
   <si>
     <t>Is a {0}.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0} 입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GW_GenesNotFound</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0} 입니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GW_GenesNotFound</t>
   </si>
   <si>
@@ -290,181 +290,181 @@
     <t>Does not have the hediff {0}.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>헤디프 {0}(이)가 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GW_HediffRestrictedEquipment_None</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>헤디프 {0}(이)가 없습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GW_HediffRestrictedEquipment_None</t>
   </si>
   <si>
     <t>Has the hediff {0}.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>헤디프 {0}(이)가 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GW_RequiresStudyOf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>헤디프 {0}(이)가 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GW_RequiresStudyOf</t>
   </si>
   <si>
     <t>Requires study of:</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학습 필요:</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GW_MoreNeeded</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>학습 필요:</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GW_MoreNeeded</t>
   </si>
   <si>
+    <t xml:space="preserve">{0} more </t>
+  </si>
+  <si>
+    <t>{0}개 더</t>
+  </si>
+  <si>
+    <t>Keyed+GW_StudyAt</t>
+  </si>
+  <si>
+    <t>GW_StudyAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> at a {0}.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}에서</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+GW_DiscoveredResearch</t>
+  </si>
+  <si>
+    <t>GW_DiscoveredResearch</t>
+  </si>
+  <si>
+    <t>You've discovered this research.</t>
+  </si>
+  <si>
+    <t>이 연구를 발견했습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <t>GW_FancyObelisk.label</t>
+  </si>
+  <si>
+    <t>supporter monument center</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>후원자 기념 센터</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GW_FancyObelisk.description</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A monument to those who helped make the GrimWorld project a reality.\n\n  Astartes tier:\n\nRainyredman1234, Bailey English\n\n  Primarch tier:\n\nFulgrim, R.CSN, kyle shadowchain, Echo\n\n  Emperor of Mankind tier:\n\nRisqué Che, Team Shibe</t>
+  </si>
+  <si>
+    <t>그림월드 프로젝트의 실현을 도운 이들을 위한 기념비입니다.\n\n  아스타르테스 티어:\n\nRainyredman1234, Bailey English\n\n  프라이마크 티어:\n\nFulgrim, R.CSN, kyle shadowchain, Echo\n\n  인류의 황제 티어:\n\nRisqué Che, Team Shibe</t>
+  </si>
+  <si>
+    <t>GW_OrdinaryObelisk.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supporter's monument</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원자 기념비</t>
+  </si>
+  <si>
+    <t>GW_OrdinaryObelisk.description</t>
+  </si>
+  <si>
+    <t>A monument to those who helped make the GrimWorld project a reality.\n\n  Servitor tier:\n\nAKorgar, Hell Fire, Sparrow, just a guy named brad\n\n  Guardsmen tier:\n\n♠_Caligula_♠, Józef Kozioł, MisterCroxo48\n\n  Stormtrooper tier:\n\nBenio, Alloyskull, Vylixan, Gofres, Celorico, Risque, Madgile\n\n  Neophyte tier:\n\nTacticalCrumpet, Petrie, JawnWick</t>
+  </si>
+  <si>
+    <t>그림월드 프로젝트의 실현을 도운 이들을 위한 기념비입니다.\n\n  서비터 티어:\n\nAKorgar, Hell Fire, Sparrow, just a guy named brad\n\n  가드맨 티어:\n\n♠_Caligula_♠, Józef Kozioł, MisterCroxo48\n\n  스톰트루퍼 티어:\n\nBenio, Alloyskull, Vylixan, Gofres, Celorico, Risque, Madgile\n\n  네오피테 티어:\n\nTacticalCrumpet, Petrie, JawnWick</t>
+  </si>
+  <si>
     <t>JobDef+CarryToIndoctrinatingChamberJob.reportString</t>
   </si>
   <si>
-    <t>{0}개 더</t>
-  </si>
-  <si>
-    <t>Keyed+GW_StudyAt</t>
-  </si>
-  <si>
-    <t>GW_StudyAt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> at a {0}.</t>
-  </si>
-  <si>
-    <t>Keyed+GW_DiscoveredResearch</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}에서</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_DiscoveredResearch</t>
-  </si>
-  <si>
-    <t>You've discovered this research.</t>
-  </si>
-  <si>
-    <t>이 연구를 발견했습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef</t>
-  </si>
-  <si>
-    <t>GW_FancyObelisk.label</t>
-  </si>
-  <si>
-    <t>supporter monument center</t>
-  </si>
-  <si>
-    <t>A monument to those who helped make the GrimWorld project a reality.\n\n  Astartes tier:\n\nRainyredman1234, Bailey English\n\n  Primarch tier:\n\nFulgrim, R.CSN, kyle shadowchain, Echo\n\n  Emperor of Mankind tier:\n\nRisqué Che, Team Shibe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>후원자 기념 센터</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GW_FancyObelisk.description</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림월드 프로젝트의 실현을 도운 이들을 위한 기념비입니다.\n\n  아스타르테스 티어:\n\nRainyredman1234, Bailey English\n\n  프라이마크 티어:\n\nFulgrim, R.CSN, kyle shadowchain, Echo\n\n  인류의 황제 티어:\n\nRisqué Che, Team Shibe</t>
-  </si>
-  <si>
-    <t>GW_OrdinaryObelisk.label</t>
-  </si>
-  <si>
-    <t>후원자 기념비</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>supporter's monument</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_OrdinaryObelisk.description</t>
-  </si>
-  <si>
-    <t>A monument to those who helped make the GrimWorld project a reality.\n\n  Servitor tier:\n\nAKorgar, Hell Fire, Sparrow, just a guy named brad\n\n  Guardsmen tier:\n\n♠_Caligula_♠, Józef Kozioł, MisterCroxo48\n\n  Stormtrooper tier:\n\nBenio, Alloyskull, Vylixan, Gofres, Celorico, Risque, Madgile\n\n  Neophyte tier:\n\nTacticalCrumpet, Petrie, JawnWick</t>
-  </si>
-  <si>
-    <t>그림월드 프로젝트의 실현을 도운 이들을 위한 기념비입니다.\n\n  서비터 티어:\n\nAKorgar, Hell Fire, Sparrow, just a guy named brad\n\n  가드맨 티어:\n\n♠_Caligula_♠, Józef Kozioł, MisterCroxo48\n\n  스톰트루퍼 티어:\n\nBenio, Alloyskull, Vylixan, Gofres, Celorico, Risque, Madgile\n\n  네오피테 티어:\n\nTacticalCrumpet, Petrie, JawnWick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} more </t>
-  </si>
-  <si>
     <t>JobDef</t>
   </si>
   <si>
@@ -474,18 +474,12 @@
     <t>carrying TargetA to indoctrinating chamber.</t>
   </si>
   <si>
-    <t>HediffDef+IndoctrinationChamber_BrainDamage.labelNounPretty</t>
+    <t>TargetA(을)를 세뇌실로 옮깁니다.</t>
   </si>
   <si>
     <t>HediffDef</t>
   </si>
   <si>
-    <t>IndoctrinationChamber_BrainDamage.labelNounPretty</t>
-  </si>
-  <si>
-    <t>{0} in the {1}</t>
-  </si>
-  <si>
     <t>HediffDef+IndoctrinationChamber_BrainDamage.label</t>
   </si>
   <si>
@@ -495,6 +489,9 @@
     <t>brainwash damage</t>
   </si>
   <si>
+    <t>세뇌 손상</t>
+  </si>
+  <si>
     <t>HediffDef+IndoctrinationChamber_BrainDamage.labelNoun</t>
   </si>
   <si>
@@ -522,12 +519,28 @@
     <t>HediffDef+IndoctrinationChamber_BrainDamage.injuryProps.destroyedOutLabel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뜯음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>IndoctrinationChamber_BrainDamage.injuryProps.destroyedOutLabel</t>
   </si>
   <si>
     <t>Torn out</t>
   </si>
   <si>
+    <t>찢어짐</t>
+  </si>
+  <si>
     <t>HediffDef+IndoctrinationChamber_BrainDamage.comps.0.permanentLabel</t>
   </si>
   <si>
@@ -537,6 +550,9 @@
     <t>brainwashed</t>
   </si>
   <si>
+    <t>세뇌됨</t>
+  </si>
+  <si>
     <t>HediffDef+IndoctrinationChamberSickness.label</t>
   </si>
   <si>
@@ -546,6 +562,9 @@
     <t>indoctrination chamber sickness</t>
   </si>
   <si>
+    <t>세뇌실병</t>
+  </si>
+  <si>
     <t>HediffDef+IndoctrinationChamberSickness.description</t>
   </si>
   <si>
@@ -558,40 +577,36 @@
     <t>HediffDef+IndoctrinationChamberSickness.descriptionShort</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플레이스홀더.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>IndoctrinationChamberSickness.descriptionShort</t>
   </si>
   <si>
     <t>After-effects of using a cryptosleep pod including dizziness, nausea, and vomiting.</t>
   </si>
   <si>
-    <t>TargetA(을)를 세뇌실로 옮깁니다.</t>
-  </si>
-  <si>
-    <t>{1}의 {0}</t>
-  </si>
-  <si>
-    <t>세뇌 손상</t>
-  </si>
-  <si>
-    <t>찢어짐</t>
-  </si>
-  <si>
-    <t>뜯음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세뇌됨</t>
-  </si>
-  <si>
-    <t>세뇌실병</t>
-  </si>
-  <si>
-    <t>어지러움, 메스꺼움, 구토 등 동면관 사용 후유증이 발생할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이스홀더.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어지러움, 메스꺼움, 구토 등 동면관 사용 후유증이 발생할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -980,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1086,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1109,12 +1124,12 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1126,12 +1141,12 @@
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1143,12 +1158,12 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1211,12 +1226,12 @@
         <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1228,12 +1243,12 @@
         <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1245,12 +1260,12 @@
         <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1259,7 +1274,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>66</v>
@@ -1279,12 +1294,12 @@
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1310,7 +1325,7 @@
         <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1318,10 +1333,10 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>81</v>
@@ -1335,10 +1350,10 @@
         <v>82</v>
       </c>
       <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
         <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,7 +1372,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1369,177 +1384,160 @@
         <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
       </c>
       <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
         <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
